--- a/biology/Botanique/Harjumägi/Harjumägi.xlsx
+++ b/biology/Botanique/Harjumägi/Harjumägi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Harjum%C3%A4gi</t>
+          <t>Harjumägi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La colline de la moraine (estonien : Harjumägi) est un parc situé sur le bastion d'Inger, au sud-est de Toompea à Tallinn en Estonie[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La colline de la moraine (estonien : Harjumägi) est un parc situé sur le bastion d'Inger, au sud-est de Toompea à Tallinn en Estonie,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Harjum%C3%A4gi</t>
+          <t>Harjumägi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est situé dans le centre de Tallinn la rue Toompea, la rue Komandandi, le boulevard Kaarli et la place de la Liberté.
 Harjumägi (ancien bastion d'Inger) demeure jusqu'au XIXe siècle d’accès assez difficile, jusqu'à l'ouverture de la rue Komandandi. 
